--- a/ExcelToMIDcore-RawDataInfo.xlsx
+++ b/ExcelToMIDcore-RawDataInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s182286/Desktop/Center for Biosustainability/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A96B06-44D1-AE47-81D7-F9E2E014A806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F403B2E-3D62-D045-BB95-64A260C1A319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49380" yWindow="600" windowWidth="17700" windowHeight="21180" xr2:uid="{D72D3A58-F3FF-2749-BCDA-1C4D63B273AD}"/>
+    <workbookView xWindow="28800" yWindow="-4360" windowWidth="27140" windowHeight="21520" xr2:uid="{D72D3A58-F3FF-2749-BCDA-1C4D63B273AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="200">
   <si>
     <t>23dpg</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Erythritol</t>
   </si>
   <si>
-    <t>glucose</t>
-  </si>
-  <si>
     <t>glycine</t>
   </si>
   <si>
@@ -408,6 +405,234 @@
   </si>
   <si>
     <t>pool</t>
+  </si>
+  <si>
+    <t>pep369</t>
+  </si>
+  <si>
+    <t>gap373</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>gap357</t>
+  </si>
+  <si>
+    <t>gap341</t>
+  </si>
+  <si>
+    <t>dhap173</t>
+  </si>
+  <si>
+    <t>dhap400</t>
+  </si>
+  <si>
+    <t>g3p357</t>
+  </si>
+  <si>
+    <t>g3p445</t>
+  </si>
+  <si>
+    <t>3pg357</t>
+  </si>
+  <si>
+    <t>3pg459</t>
+  </si>
+  <si>
+    <t>cit465</t>
+  </si>
+  <si>
+    <t>e4p217</t>
+  </si>
+  <si>
+    <t>e4p341</t>
+  </si>
+  <si>
+    <t>ru5p217</t>
+  </si>
+  <si>
+    <t>ru5p357</t>
+  </si>
+  <si>
+    <t>ru5p604</t>
+  </si>
+  <si>
+    <t>C1C2C4</t>
+  </si>
+  <si>
+    <t>C4C3</t>
+  </si>
+  <si>
+    <t>C1C2C3C4C5</t>
+  </si>
+  <si>
+    <t>r5p160</t>
+  </si>
+  <si>
+    <t>r5p357</t>
+  </si>
+  <si>
+    <t>r5p459</t>
+  </si>
+  <si>
+    <t>r5p604</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C3C5</t>
+  </si>
+  <si>
+    <t>C3C4C5</t>
+  </si>
+  <si>
+    <t>f6p217</t>
+  </si>
+  <si>
+    <t>f6p721</t>
+  </si>
+  <si>
+    <t>f6p706</t>
+  </si>
+  <si>
+    <t>g6p160</t>
+  </si>
+  <si>
+    <t>g6p357</t>
+  </si>
+  <si>
+    <t>g6p471</t>
+  </si>
+  <si>
+    <t>g6p706</t>
+  </si>
+  <si>
+    <t>C5C6</t>
+  </si>
+  <si>
+    <t>C2C3</t>
+  </si>
+  <si>
+    <t>C1C4C2C3</t>
+  </si>
+  <si>
+    <t>C1C2C3C4C5C6</t>
+  </si>
+  <si>
+    <t>6pg765</t>
+  </si>
+  <si>
+    <t>s7p357</t>
+  </si>
+  <si>
+    <t>C2C5</t>
+  </si>
+  <si>
+    <t>ala116</t>
+  </si>
+  <si>
+    <t>ala190</t>
+  </si>
+  <si>
+    <t>ala218</t>
+  </si>
+  <si>
+    <t>C1C3</t>
+  </si>
+  <si>
+    <t>C1C2C3/C2C3</t>
+  </si>
+  <si>
+    <t>val246</t>
+  </si>
+  <si>
+    <t>C1C2C3C4C5/C2C3C4C5/C1C3C4C5</t>
+  </si>
+  <si>
+    <t>leu260</t>
+  </si>
+  <si>
+    <t>ile260</t>
+  </si>
+  <si>
+    <t>gly174</t>
+  </si>
+  <si>
+    <t>gly276</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1C2</t>
+  </si>
+  <si>
+    <t>pro244</t>
+  </si>
+  <si>
+    <t>pro216</t>
+  </si>
+  <si>
+    <t>C1C2C4C5</t>
+  </si>
+  <si>
+    <t>ser188</t>
+  </si>
+  <si>
+    <t>ser204</t>
+  </si>
+  <si>
+    <t>ser218</t>
+  </si>
+  <si>
+    <t>thr218</t>
+  </si>
+  <si>
+    <t>C2C3C4</t>
+  </si>
+  <si>
+    <t>asp292</t>
+  </si>
+  <si>
+    <t>asp334</t>
+  </si>
+  <si>
+    <t>C2C4</t>
+  </si>
+  <si>
+    <t>C1C2C3C4</t>
+  </si>
+  <si>
+    <t>met263</t>
+  </si>
+  <si>
+    <t>C2C3C4C5</t>
+  </si>
+  <si>
+    <t>glu348</t>
+  </si>
+  <si>
+    <t>glutamate</t>
+  </si>
+  <si>
+    <t>phe294</t>
+  </si>
+  <si>
+    <t>lys419</t>
+  </si>
+  <si>
+    <t>C1C2C3C4C5C6C7C8C9</t>
+  </si>
+  <si>
+    <t>C3C4</t>
+  </si>
+  <si>
+    <t>C4C5C6</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -783,11 +1008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAC4BB9-1FCB-6B46-BA5D-1F38483BB48E}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,7 +1033,7 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>48</v>
@@ -823,7 +1048,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
         <v>50</v>
@@ -849,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D36" si="0">B2+C2+1</f>
+        <f t="shared" ref="D2:D59" si="0">B2+C2+1</f>
         <v>270</v>
       </c>
       <c r="E2" s="4">
@@ -902,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H55" si="1">C3</f>
+        <f t="shared" ref="H3:H95" si="1">C3</f>
         <v>6</v>
       </c>
       <c r="I3" t="s">
@@ -950,7 +1175,7 @@
         <v>15351</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L62" si="2">L3</f>
+        <f t="shared" ref="L4:L89" si="2">L3</f>
         <v>LC-MS1</v>
       </c>
     </row>
@@ -1298,14 +1523,14 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="5">
-        <f>B20+B21</f>
+        <f>B20+B23</f>
         <v>462</v>
       </c>
       <c r="C14" s="5">
-        <f>C20+C21</f>
+        <f>C20+C23</f>
         <v>9</v>
       </c>
       <c r="D14" s="3">
@@ -1319,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>G20+G21</f>
+        <f>G20+G23</f>
         <v>2</v>
       </c>
       <c r="H14">
@@ -1415,7 +1640,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="6">
         <v>172</v>
@@ -1447,13 +1672,16 @@
         <f>J16</f>
         <v>26806</v>
       </c>
+      <c r="K17" t="s">
+        <v>189</v>
+      </c>
       <c r="L17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="6">
         <v>247</v>
@@ -1485,8 +1713,11 @@
         <f>J17</f>
         <v>26806</v>
       </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1567,702 +1798,735 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="6">
+        <v>357</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>11</v>
+      </c>
+      <c r="I21" t="str">
+        <f>I20</f>
+        <v>3-phosphoglycerate</v>
+      </c>
+      <c r="J21">
+        <f>J20</f>
+        <v>132960</v>
+      </c>
+      <c r="K21" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="6">
+        <v>459</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>14</v>
+      </c>
+      <c r="I22" t="str">
+        <f>I21</f>
+        <v>3-phosphoglycerate</v>
+      </c>
+      <c r="J22">
+        <f>J21</f>
+        <v>132960</v>
+      </c>
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B23" s="6">
         <v>276</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <v>6</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I23" t="s">
         <v>72</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>16863</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="2"/>
+      <c r="L23" t="str">
+        <f>L20</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="6">
+        <v>765</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>26</v>
+      </c>
+      <c r="I24" t="str">
+        <f>I23</f>
+        <v>6-phospho-D-gluconate</v>
+      </c>
+      <c r="J24">
+        <f>J23</f>
+        <v>16863</v>
+      </c>
+      <c r="K24" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B25" s="6">
         <v>89</v>
       </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I25" t="s">
         <v>78</v>
       </c>
-      <c r="J22">
+      <c r="J25">
         <v>16449</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="2"/>
+      <c r="L25" t="str">
+        <f>L23</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="6">
+        <v>116</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>5</v>
+      </c>
+      <c r="I26" t="str">
+        <f>I25</f>
+        <v>alanine</v>
+      </c>
+      <c r="J26">
+        <v>16449</v>
+      </c>
+      <c r="K26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="6">
+        <v>190</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>7</v>
+      </c>
+      <c r="I27" t="str">
+        <f>I25</f>
+        <v>alanine</v>
+      </c>
+      <c r="J27">
+        <v>16449</v>
+      </c>
+      <c r="K27" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="6">
+        <v>218</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>8</v>
+      </c>
+      <c r="I28" t="str">
+        <f>I25</f>
+        <v>alanine</v>
+      </c>
+      <c r="J28">
+        <v>16449</v>
+      </c>
+      <c r="K28" t="s">
+        <v>169</v>
+      </c>
+      <c r="L28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B29" s="6">
         <v>133</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I29" t="s">
         <v>79</v>
       </c>
-      <c r="J23">
+      <c r="J29">
         <v>29991</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="2"/>
+      <c r="L29" t="str">
+        <f>L25</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="6">
+        <v>292</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2</v>
+      </c>
+      <c r="I30" t="str">
+        <f>I29</f>
+        <v>L-aspartate</v>
+      </c>
+      <c r="J30">
+        <v>29991</v>
+      </c>
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="6">
+        <v>334</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>4</v>
+      </c>
+      <c r="I31" t="str">
+        <f>I29</f>
+        <v>L-aspartate</v>
+      </c>
+      <c r="J31">
+        <v>29991</v>
+      </c>
+      <c r="K31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B32" s="6">
         <v>122</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C32" s="6">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I32" t="s">
         <v>80</v>
       </c>
-      <c r="J24">
+      <c r="J32">
         <v>17113</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="2"/>
+      <c r="L32" t="str">
+        <f>L29</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="6">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="6">
         <v>307</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C33" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D33" s="7">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>3</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>16</v>
       </c>
-      <c r="I25" t="str">
-        <f>I24</f>
+      <c r="I33" t="str">
+        <f>I32</f>
         <v>Erythritol</v>
       </c>
-      <c r="J25">
-        <f>J24</f>
+      <c r="J33">
+        <f>J32</f>
         <v>17113</v>
       </c>
-      <c r="L25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="K33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B34" s="6">
         <v>147</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C34" s="6">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D34" s="7">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26">
+      <c r="I34" t="s">
+        <v>193</v>
+      </c>
+      <c r="J34">
         <v>17234</v>
       </c>
-      <c r="L26" t="str">
-        <f>L24</f>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="6">
-        <v>75</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27">
-        <v>15428</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="6">
-        <v>131</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28">
-        <v>17191</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="6">
-        <v>131</v>
-      </c>
-      <c r="C29" s="6">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J29">
-        <v>25017</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6">
-        <v>146</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30">
-        <v>25094</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="6">
-        <v>149</v>
-      </c>
-      <c r="C31" s="6">
-        <v>5</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31">
-        <v>16811</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="5">
-        <v>165</v>
-      </c>
-      <c r="C32" s="6">
-        <v>9</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32">
-        <v>28044</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="6">
-        <v>115</v>
-      </c>
-      <c r="C33" s="6">
-        <v>5</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33">
-        <v>26271</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="6">
-        <v>105</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34">
-        <v>17822</v>
-      </c>
       <c r="L34" t="str">
-        <f t="shared" si="2"/>
+        <f>L32</f>
         <v>LC-MS1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="B35" s="6">
-        <v>119</v>
+        <v>348</v>
       </c>
       <c r="C35" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>354</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I35" t="s">
-        <v>90</v>
+      <c r="H35" s="6">
+        <v>13</v>
+      </c>
+      <c r="I35" t="str">
+        <f>I34</f>
+        <v>glutamate</v>
       </c>
       <c r="J35">
-        <v>26986</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
+        <v>17234</v>
+      </c>
+      <c r="K35" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" s="6">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C36" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
       </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J36">
-        <v>27266</v>
+        <v>15428</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="2"/>
+        <f>L34</f>
         <v>LC-MS1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="B37" s="6">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C37" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" ref="D37:D62" si="3">B37+C37+1</f>
-        <v>152</v>
+        <f t="shared" si="0"/>
+        <v>176</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="J37">
-        <v>30916</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
+        <v>15428</v>
+      </c>
+      <c r="K37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="B38" s="6">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C38" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="3"/>
-        <v>310</v>
+        <f t="shared" si="0"/>
+        <v>279</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
       </c>
       <c r="F38" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="6">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
-      </c>
-      <c r="I38" t="str">
-        <f>I37</f>
-        <v>alpha-ketoglutarate</v>
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38">
+        <v>15428</v>
+      </c>
+      <c r="K38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B39" s="6">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C39" s="6">
         <v>6</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="3"/>
-        <v>199</v>
+        <f t="shared" si="0"/>
+        <v>138</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
@@ -2270,95 +2534,97 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J39">
-        <v>30769</v>
+        <v>17191</v>
       </c>
       <c r="L39" t="str">
-        <f>L37</f>
+        <f>L36</f>
         <v>LC-MS1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="5">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="B40" s="6">
+        <v>260</v>
       </c>
       <c r="C40" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="3"/>
-        <v>174</v>
+        <f t="shared" si="0"/>
+        <v>267</v>
       </c>
       <c r="E40" s="7">
         <v>0</v>
       </c>
       <c r="F40" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I40" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="I40" t="str">
+        <f>I39</f>
+        <v>isoleucine</v>
       </c>
       <c r="J40">
-        <v>16108</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
+        <v>17191</v>
+      </c>
+      <c r="K40" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B41" s="6">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="C41" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="3"/>
-        <v>205</v>
+        <f t="shared" si="0"/>
+        <v>138</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
       </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1</v>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J41">
-        <v>16897</v>
+        <v>25017</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="2"/>
+        <f>L39</f>
         <v>LC-MS1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="B42" s="6">
         <v>260</v>
@@ -2367,140 +2633,145 @@
         <v>6</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
       </c>
       <c r="F42" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42">
+        <v>25017</v>
+      </c>
+      <c r="K42" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="6">
+        <v>146</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42">
-        <v>88003</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="6">
-        <v>115</v>
-      </c>
-      <c r="C43" s="6">
-        <v>4</v>
-      </c>
-      <c r="D43" s="7">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="I43" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J43">
-        <v>37154</v>
+        <v>25094</v>
       </c>
       <c r="L43" t="str">
-        <f>L42</f>
+        <f>L41</f>
         <v>LC-MS1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="B44" s="6">
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="C44" s="6">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
         <v>4</v>
       </c>
-      <c r="D44" s="7">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>113</v>
+      <c r="H44" s="6">
+        <v>17</v>
+      </c>
+      <c r="I44" t="str">
+        <f>I43</f>
+        <v>lysine</v>
       </c>
       <c r="J44">
         <f>J43</f>
-        <v>37154</v>
+        <v>25094</v>
+      </c>
+      <c r="K44" t="s">
+        <v>161</v>
       </c>
       <c r="L44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B45" s="6">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C45" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="3"/>
-        <v>176</v>
+        <f t="shared" si="0"/>
+        <v>155</v>
       </c>
       <c r="E45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="6">
         <v>0</v>
       </c>
       <c r="G45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J45">
-        <v>15978</v>
+        <v>16811</v>
       </c>
       <c r="L45" t="str">
         <f>L43</f>
@@ -2509,131 +2780,137 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="B46" s="6">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C46" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="3"/>
-        <v>267</v>
+        <f t="shared" si="0"/>
+        <v>268</v>
       </c>
       <c r="E46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I46" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>9</v>
+      </c>
+      <c r="I46" t="str">
+        <f>I45</f>
+        <v>methionine</v>
       </c>
       <c r="J46">
-        <v>14314</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
+        <f>J45</f>
+        <v>16811</v>
+      </c>
+      <c r="K46" t="s">
+        <v>191</v>
+      </c>
+      <c r="L46" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="6">
-        <v>170</v>
+        <v>26</v>
+      </c>
+      <c r="B47" s="5">
+        <v>165</v>
       </c>
       <c r="C47" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="3"/>
-        <v>174</v>
+        <f t="shared" si="0"/>
+        <v>175</v>
       </c>
       <c r="E47" s="7">
         <v>0</v>
       </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J47">
-        <v>17138</v>
+        <v>28044</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="2"/>
+        <f>L45</f>
         <v>LC-MS1</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="B48" s="6">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="C48" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>304</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I48" t="s">
-        <v>98</v>
+      <c r="H48" s="6">
+        <v>9</v>
+      </c>
+      <c r="I48" t="str">
+        <f>I47</f>
+        <v>phenylalanine</v>
       </c>
       <c r="J48">
-        <v>15428</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="2"/>
-        <v>LC-MS1</v>
+        <f>J47</f>
+        <v>28044</v>
+      </c>
+      <c r="K48" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B49" s="6">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C49" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
@@ -2645,70 +2922,73 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f>C49</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J49">
-        <v>24996</v>
+        <v>26271</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="2"/>
+        <f>L47</f>
         <v>LC-MS1</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="B50" s="6">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="C50" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I50" t="str">
         <f>I49</f>
-        <v>lactate</v>
+        <v>proline</v>
       </c>
       <c r="J50">
-        <v>24996</v>
+        <v>26271</v>
+      </c>
+      <c r="K50" t="s">
+        <v>143</v>
       </c>
       <c r="L50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="B51" s="6">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C51" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="3"/>
-        <v>223</v>
+        <f t="shared" si="0"/>
+        <v>221</v>
       </c>
       <c r="E51" s="7">
         <v>0</v>
@@ -2720,32 +3000,35 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" t="str">
-        <f>I50</f>
-        <v>lactate</v>
+        <f>I49</f>
+        <v>proline</v>
       </c>
       <c r="J51">
-        <v>24996</v>
+        <v>26271</v>
+      </c>
+      <c r="K51" t="s">
+        <v>180</v>
       </c>
       <c r="L51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B52" s="6">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C52" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="3"/>
-        <v>139</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="E52" s="7">
         <v>0</v>
@@ -2758,13 +3041,13 @@
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J52">
-        <v>15595</v>
+        <v>17822</v>
       </c>
       <c r="L52" t="str">
         <f>L49</f>
@@ -2773,357 +3056,2296 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="6">
+        <v>188</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>7</v>
+      </c>
+      <c r="I53" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53">
+        <v>17822</v>
+      </c>
+      <c r="K53" t="s">
+        <v>177</v>
+      </c>
+      <c r="L53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="6">
+        <v>204</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>88</v>
+      </c>
+      <c r="J54">
+        <v>17822</v>
+      </c>
+      <c r="K54" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="6">
+        <v>218</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+      <c r="J55">
+        <v>17822</v>
+      </c>
+      <c r="K55" t="s">
+        <v>159</v>
+      </c>
+      <c r="L55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="6">
         <v>119</v>
       </c>
-      <c r="B53" s="6">
+      <c r="C56" s="6">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56">
+        <v>26986</v>
+      </c>
+      <c r="L56" t="str">
+        <f>L52</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="6">
+        <v>218</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>9</v>
+      </c>
+      <c r="I57" t="str">
+        <f>I56</f>
+        <v>threonine</v>
+      </c>
+      <c r="J57">
+        <f>J56</f>
+        <v>26986</v>
+      </c>
+      <c r="K57" t="s">
+        <v>185</v>
+      </c>
+      <c r="L57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="6">
+        <v>117</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58">
+        <v>27266</v>
+      </c>
+      <c r="L58" t="str">
+        <f>L56</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="6">
+        <v>246</v>
+      </c>
+      <c r="C59" s="6">
+        <v>5</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59">
+        <v>27266</v>
+      </c>
+      <c r="K59" t="s">
+        <v>171</v>
+      </c>
+      <c r="L59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="6">
+        <v>146</v>
+      </c>
+      <c r="C60" s="6">
+        <v>5</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" ref="D60:D110" si="3">B60+C60+1</f>
+        <v>152</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>122</v>
+      </c>
+      <c r="J60">
+        <v>30916</v>
+      </c>
+      <c r="L60" t="str">
+        <f>L58</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="6">
+        <v>304</v>
+      </c>
+      <c r="C61" s="6">
+        <v>5</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="I61" t="str">
+        <f>I60</f>
+        <v>alpha-ketoglutarate</v>
+      </c>
+      <c r="J61">
+        <f>J60</f>
+        <v>30916</v>
+      </c>
+      <c r="K61" t="s">
+        <v>143</v>
+      </c>
+      <c r="L61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="6">
+        <v>192</v>
+      </c>
+      <c r="C62" s="6">
+        <v>6</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62">
+        <v>30769</v>
+      </c>
+      <c r="L62" t="str">
+        <f>L60</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="6">
+        <v>465</v>
+      </c>
+      <c r="C63" s="6">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>4</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+      <c r="I63" t="str">
+        <f>I62</f>
+        <v>citrate</v>
+      </c>
+      <c r="J63">
+        <f>J62</f>
+        <v>30769</v>
+      </c>
+      <c r="K63" t="s">
+        <v>161</v>
+      </c>
+      <c r="L63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="5">
+        <v>170</v>
+      </c>
+      <c r="C64" s="6">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64">
+        <v>16108</v>
+      </c>
+      <c r="L64" t="str">
+        <f>L62</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="6">
+        <v>173</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65" t="str">
+        <f>I64</f>
+        <v>Dihydroxyacetone phosphate</v>
+      </c>
+      <c r="J65">
+        <f>J64</f>
+        <v>16108</v>
+      </c>
+      <c r="K65" t="s">
+        <v>57</v>
+      </c>
+      <c r="L65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="6">
+        <v>400</v>
+      </c>
+      <c r="C66" s="6">
+        <v>3</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>3</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+      <c r="I66" t="str">
+        <f>I64</f>
+        <v>Dihydroxyacetone phosphate</v>
+      </c>
+      <c r="J66">
+        <f>J65</f>
+        <v>16108</v>
+      </c>
+      <c r="K66" t="s">
+        <v>57</v>
+      </c>
+      <c r="L66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="6">
+        <v>200</v>
+      </c>
+      <c r="C67" s="6">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J67">
+        <v>16897</v>
+      </c>
+      <c r="L67" t="str">
+        <f>L64</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="6">
+        <v>217</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>9</v>
+      </c>
+      <c r="I68" t="str">
+        <f>I67</f>
+        <v>rythrose-4-phosphate</v>
+      </c>
+      <c r="J68">
+        <f>J67</f>
+        <v>16897</v>
+      </c>
+      <c r="K68" t="s">
+        <v>57</v>
+      </c>
+      <c r="L68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="6">
+        <v>341</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="3"/>
+        <v>344</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>3</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6">
+        <v>9</v>
+      </c>
+      <c r="I69" t="str">
+        <f>I68</f>
+        <v>rythrose-4-phosphate</v>
+      </c>
+      <c r="J69">
+        <f>J68</f>
+        <v>16897</v>
+      </c>
+      <c r="K69" t="s">
+        <v>197</v>
+      </c>
+      <c r="L69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="6">
+        <v>260</v>
+      </c>
+      <c r="C70" s="6">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J70">
+        <v>88003</v>
+      </c>
+      <c r="L70" t="str">
+        <f>L67</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="6">
+        <v>217</v>
+      </c>
+      <c r="C71" s="6">
+        <v>3</v>
+      </c>
+      <c r="D71" s="7">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2</v>
+      </c>
+      <c r="G71" s="6">
+        <v>2</v>
+      </c>
+      <c r="H71" s="6">
+        <v>9</v>
+      </c>
+      <c r="I71" t="str">
+        <f>I70</f>
+        <v>fructose-6-phosphate</v>
+      </c>
+      <c r="J71">
+        <v>88003</v>
+      </c>
+      <c r="K71" t="s">
+        <v>198</v>
+      </c>
+      <c r="L71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="6">
+        <v>721</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="3"/>
+        <v>724</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>3</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+      <c r="J72">
+        <v>88003</v>
+      </c>
+      <c r="K72" t="s">
+        <v>159</v>
+      </c>
+      <c r="L72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="6">
+        <v>706</v>
+      </c>
+      <c r="C73" s="6">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="3"/>
+        <v>713</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <v>6</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+      <c r="J73">
+        <v>88003</v>
+      </c>
+      <c r="K73" t="s">
+        <v>161</v>
+      </c>
+      <c r="L73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="6">
+        <v>115</v>
+      </c>
+      <c r="C74" s="6">
+        <v>4</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74">
+        <v>37154</v>
+      </c>
+      <c r="L74" t="str">
+        <f>L70</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="6">
+        <v>245</v>
+      </c>
+      <c r="C75" s="6">
+        <v>4</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>9</v>
+      </c>
+      <c r="I75" t="s">
+        <v>112</v>
+      </c>
+      <c r="J75">
+        <f>J74</f>
+        <v>37154</v>
+      </c>
+      <c r="K75" t="s">
+        <v>189</v>
+      </c>
+      <c r="L75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="6">
+        <v>172</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+      <c r="J76">
+        <v>15978</v>
+      </c>
+      <c r="L76" t="str">
+        <f>L74</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="6">
+        <v>357</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" s="7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>11</v>
+      </c>
+      <c r="I77" t="str">
+        <f>I76</f>
+        <v>Glycerol-3-phosphate</v>
+      </c>
+      <c r="J77">
+        <f>J76</f>
+        <v>15978</v>
+      </c>
+      <c r="K77" t="s">
+        <v>159</v>
+      </c>
+      <c r="L77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="6">
+        <v>445</v>
+      </c>
+      <c r="C78" s="6">
+        <v>3</v>
+      </c>
+      <c r="D78" s="7">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6">
+        <v>4</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6">
+        <v>14</v>
+      </c>
+      <c r="I78" t="str">
+        <f>I77</f>
+        <v>Glycerol-3-phosphate</v>
+      </c>
+      <c r="J78">
+        <f>J77</f>
+        <v>15978</v>
+      </c>
+      <c r="K78" t="s">
+        <v>57</v>
+      </c>
+      <c r="L78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="6">
+        <v>260</v>
+      </c>
+      <c r="C79" s="6">
+        <v>6</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>96</v>
+      </c>
+      <c r="J79">
+        <v>14314</v>
+      </c>
+      <c r="L79" t="str">
+        <f>L76</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="6">
+        <v>160</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>6</v>
+      </c>
+      <c r="I80" t="str">
+        <f>I79</f>
+        <v>glucose-6-phosphate_syn</v>
+      </c>
+      <c r="J80">
+        <v>14314</v>
+      </c>
+      <c r="K80" t="s">
+        <v>158</v>
+      </c>
+      <c r="L80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="6">
+        <v>357</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" s="7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>3</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="H81" s="6">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>96</v>
+      </c>
+      <c r="J81">
+        <v>14314</v>
+      </c>
+      <c r="K81" t="s">
+        <v>159</v>
+      </c>
+      <c r="L81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="6">
+        <v>471</v>
+      </c>
+      <c r="C82" s="6">
+        <v>4</v>
+      </c>
+      <c r="D82" s="7">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
+        <v>4</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>96</v>
+      </c>
+      <c r="J82">
+        <v>14314</v>
+      </c>
+      <c r="K82" t="s">
+        <v>160</v>
+      </c>
+      <c r="L82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="6">
+        <v>706</v>
+      </c>
+      <c r="C83" s="6">
+        <v>6</v>
+      </c>
+      <c r="D83" s="7">
+        <f t="shared" si="3"/>
+        <v>713</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>6</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
+        <v>96</v>
+      </c>
+      <c r="J83">
+        <v>14314</v>
+      </c>
+      <c r="K83" t="s">
+        <v>161</v>
+      </c>
+      <c r="L83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="6">
+        <v>170</v>
+      </c>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="7">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I84" t="s">
+        <v>97</v>
+      </c>
+      <c r="J84">
+        <v>17138</v>
+      </c>
+      <c r="L84" t="str">
+        <f>L79</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="6">
+        <v>373</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6">
+        <v>3</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" ref="I85:J87" si="4">I84</f>
+        <v>Glyceraldehyde-3-phosphate</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="4"/>
+        <v>17138</v>
+      </c>
+      <c r="K85" t="s">
+        <v>199</v>
+      </c>
+      <c r="L85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="6">
+        <v>357</v>
+      </c>
+      <c r="C86" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" s="7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6">
+        <v>3</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6">
+        <v>11</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="4"/>
+        <v>Glyceraldehyde-3-phosphate</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="4"/>
+        <v>17138</v>
+      </c>
+      <c r="K86" t="s">
+        <v>159</v>
+      </c>
+      <c r="L86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="6">
+        <v>341</v>
+      </c>
+      <c r="C87" s="6">
+        <v>3</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6">
+        <v>2</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87" s="6">
+        <v>10</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="4"/>
+        <v>Glyceraldehyde-3-phosphate</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>17138</v>
+      </c>
+      <c r="K87" t="s">
+        <v>57</v>
+      </c>
+      <c r="L87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="6">
+        <v>75</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" s="7">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+      <c r="J88">
+        <v>15428</v>
+      </c>
+      <c r="L88" t="str">
+        <f>L84</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="6">
+        <v>90</v>
+      </c>
+      <c r="C89" s="6">
+        <v>3</v>
+      </c>
+      <c r="D89" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>C89</f>
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>98</v>
+      </c>
+      <c r="J89">
+        <v>24996</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="2"/>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="6">
+        <v>117</v>
+      </c>
+      <c r="C90" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90" t="str">
+        <f>I89</f>
+        <v>lactate</v>
+      </c>
+      <c r="J90">
+        <v>24996</v>
+      </c>
+      <c r="K90" t="s">
+        <v>168</v>
+      </c>
+      <c r="L90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="6">
+        <v>219</v>
+      </c>
+      <c r="C91" s="6">
+        <v>3</v>
+      </c>
+      <c r="D91" s="7">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6">
+        <v>2</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91" t="str">
+        <f>I90</f>
+        <v>lactate</v>
+      </c>
+      <c r="J91">
+        <v>24996</v>
+      </c>
+      <c r="K91" t="s">
+        <v>57</v>
+      </c>
+      <c r="L91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="6">
+        <v>134</v>
+      </c>
+      <c r="C92" s="6">
+        <v>4</v>
+      </c>
+      <c r="D92" s="7">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>99</v>
+      </c>
+      <c r="J92">
+        <v>15595</v>
+      </c>
+      <c r="L92" t="str">
+        <f>L89</f>
+        <v>LC-MS1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="6">
         <v>233</v>
       </c>
-      <c r="C53" s="6">
-        <v>3</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="C93" s="6">
+        <v>3</v>
+      </c>
+      <c r="D93" s="7">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="E53" s="7">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
-        <v>2</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6">
+        <v>2</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
         <v>9</v>
       </c>
-      <c r="I53" t="str">
-        <f>I52</f>
+      <c r="I93" t="str">
+        <f>I92</f>
         <v>malate</v>
       </c>
-      <c r="J53">
-        <f>J52</f>
+      <c r="J93">
+        <f>J92</f>
         <v>15595</v>
       </c>
-      <c r="L53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="6">
+      <c r="K93" t="s">
+        <v>185</v>
+      </c>
+      <c r="L93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="6">
         <v>245</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C94" s="6">
         <v>4</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D94" s="7">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="6">
-        <v>2</v>
-      </c>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
-      <c r="H54" s="6">
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
+        <v>2</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0</v>
+      </c>
+      <c r="H94" s="6">
         <v>9</v>
       </c>
-      <c r="I54" t="str">
-        <f>I53</f>
+      <c r="I94" t="str">
+        <f>I93</f>
         <v>malate</v>
       </c>
-      <c r="J54">
-        <f>J53</f>
+      <c r="J94">
+        <f>J93</f>
         <v>15595</v>
       </c>
-      <c r="L54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="K94" t="s">
+        <v>189</v>
+      </c>
+      <c r="L94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B95" s="6">
         <v>168</v>
       </c>
-      <c r="C55" s="6">
-        <v>3</v>
-      </c>
-      <c r="D55" s="7">
+      <c r="C95" s="6">
+        <v>3</v>
+      </c>
+      <c r="D95" s="7">
         <f t="shared" si="3"/>
         <v>172</v>
       </c>
-      <c r="E55" s="7">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55">
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I55" t="s">
-        <v>101</v>
-      </c>
-      <c r="J55" s="6">
+      <c r="I95" t="s">
+        <v>100</v>
+      </c>
+      <c r="J95" s="6">
         <v>18021</v>
       </c>
-      <c r="L55" t="str">
-        <f>L52</f>
+      <c r="L95" t="str">
+        <f>L92</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="6">
+        <v>369</v>
+      </c>
+      <c r="C96" s="6">
+        <v>3</v>
+      </c>
+      <c r="D96" s="7">
+        <f t="shared" si="3"/>
+        <v>373</v>
+      </c>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6">
+        <v>2</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>11</v>
+      </c>
+      <c r="I96" t="str">
+        <f>I95</f>
+        <v>Phosphoenolpyruvate</v>
+      </c>
+      <c r="J96" s="6">
+        <f>J95</f>
+        <v>18021</v>
+      </c>
+      <c r="K96" t="s">
+        <v>57</v>
+      </c>
+      <c r="L96" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B97" s="6">
         <v>87</v>
       </c>
-      <c r="C56" s="6">
-        <v>3</v>
-      </c>
-      <c r="D56" s="7">
+      <c r="C97" s="6">
+        <v>3</v>
+      </c>
+      <c r="D97" s="7">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6">
-        <v>0</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="6">
-        <v>3</v>
-      </c>
-      <c r="I56" t="s">
-        <v>102</v>
-      </c>
-      <c r="J56">
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0</v>
+      </c>
+      <c r="H97" s="6">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>101</v>
+      </c>
+      <c r="J97">
         <v>15361</v>
       </c>
-      <c r="L56" t="str">
-        <f>L55</f>
+      <c r="L97" t="str">
+        <f>L95</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="6">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="6">
         <v>115</v>
       </c>
-      <c r="C57" s="6">
-        <v>2</v>
-      </c>
-      <c r="D57" s="7">
+      <c r="C98" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" s="7">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="E57" s="7">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
         <v>1</v>
       </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
+      <c r="G98" s="6">
+        <v>0</v>
+      </c>
+      <c r="H98" s="6">
         <v>7</v>
       </c>
-      <c r="I57" t="s">
-        <v>102</v>
-      </c>
-      <c r="J57">
-        <f>J56</f>
+      <c r="I98" t="s">
+        <v>101</v>
+      </c>
+      <c r="J98">
+        <f>J97</f>
         <v>15361</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="6">
+      <c r="K98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="6">
         <v>174</v>
       </c>
-      <c r="C58" s="6">
-        <v>3</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="C99" s="6">
+        <v>3</v>
+      </c>
+      <c r="D99" s="7">
         <f t="shared" si="3"/>
         <v>178</v>
       </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
         <v>1</v>
       </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6">
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="H99" s="6">
         <v>7</v>
       </c>
-      <c r="I58" t="s">
-        <v>102</v>
-      </c>
-      <c r="J58">
-        <f>J57</f>
+      <c r="I99" t="s">
+        <v>101</v>
+      </c>
+      <c r="J99">
+        <f>J98</f>
         <v>15361</v>
       </c>
-      <c r="K58" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L58" t="str">
-        <f>L57</f>
+      <c r="K99" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L99" t="str">
+        <f>L98</f>
         <v>GC-MS1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B100" s="6">
         <v>230</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C100" s="6">
         <v>5</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D100" s="7">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="E59" s="7">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0</v>
-      </c>
-      <c r="G59" s="6">
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6">
         <v>1</v>
       </c>
-      <c r="H59" s="6">
-        <f>C59</f>
+      <c r="H100" s="6">
+        <f>C100</f>
         <v>5</v>
       </c>
-      <c r="I59" t="s">
-        <v>103</v>
-      </c>
-      <c r="J59">
+      <c r="I100" t="s">
+        <v>102</v>
+      </c>
+      <c r="J100">
         <v>78679</v>
       </c>
-      <c r="L59" t="str">
-        <f>L56</f>
+      <c r="L100" t="str">
+        <f>L97</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" s="6">
+        <v>160</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>2</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="H101" s="6">
+        <v>7</v>
+      </c>
+      <c r="I101" t="str">
+        <f>I100</f>
+        <v>ribose-5-phosphate_Syn</v>
+      </c>
+      <c r="J101">
+        <v>78679</v>
+      </c>
+      <c r="K101" t="s">
+        <v>148</v>
+      </c>
+      <c r="L101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="6">
+        <v>357</v>
+      </c>
+      <c r="C102" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0</v>
+      </c>
+      <c r="F102" s="6">
+        <v>3</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="6">
+        <v>12</v>
+      </c>
+      <c r="I102" t="str">
+        <f>I100</f>
+        <v>ribose-5-phosphate_Syn</v>
+      </c>
+      <c r="J102">
+        <v>78679</v>
+      </c>
+      <c r="K102" t="s">
+        <v>149</v>
+      </c>
+      <c r="L102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="6">
+        <v>459</v>
+      </c>
+      <c r="C103" s="6">
+        <v>3</v>
+      </c>
+      <c r="D103" s="7">
+        <f t="shared" si="3"/>
+        <v>463</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>4</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="6">
+        <v>15</v>
+      </c>
+      <c r="I103" t="str">
+        <f>I100</f>
+        <v>ribose-5-phosphate_Syn</v>
+      </c>
+      <c r="J103">
+        <v>78679</v>
+      </c>
+      <c r="K103" t="s">
+        <v>150</v>
+      </c>
+      <c r="L103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="6">
+        <v>604</v>
+      </c>
+      <c r="C104" s="6">
+        <v>5</v>
+      </c>
+      <c r="D104" s="7">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>5</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="6">
+        <v>20</v>
+      </c>
+      <c r="I104" t="str">
+        <f>I100</f>
+        <v>ribose-5-phosphate_Syn</v>
+      </c>
+      <c r="J104">
+        <v>78679</v>
+      </c>
+      <c r="K104" t="s">
+        <v>143</v>
+      </c>
+      <c r="L104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B105" s="6">
         <v>230</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C105" s="6">
         <v>5</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D105" s="7">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="E60" s="7">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
-        <v>0</v>
-      </c>
-      <c r="G60" s="6">
+      <c r="E105" s="7">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0</v>
+      </c>
+      <c r="G105" s="6">
         <v>1</v>
       </c>
-      <c r="H60" s="6">
-        <f t="shared" ref="H60:H62" si="4">C60</f>
+      <c r="H105" s="6">
+        <f t="shared" ref="H105:H109" si="5">C105</f>
         <v>5</v>
       </c>
-      <c r="I60" t="s">
-        <v>105</v>
-      </c>
-      <c r="J60">
+      <c r="I105" t="s">
+        <v>104</v>
+      </c>
+      <c r="J105">
         <v>17363</v>
       </c>
-      <c r="L60" t="str">
-        <f t="shared" si="2"/>
+      <c r="L105" t="str">
+        <f>L100</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="6">
+        <v>217</v>
+      </c>
+      <c r="C106" s="6">
+        <v>3</v>
+      </c>
+      <c r="D106" s="7">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6">
+        <v>2</v>
+      </c>
+      <c r="G106" s="6">
+        <v>0</v>
+      </c>
+      <c r="H106" s="6">
+        <v>9</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" ref="I106:J108" si="6">I105</f>
+        <v>ribulose-5-phosphate</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="6"/>
+        <v>17363</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="6">
+        <v>357</v>
+      </c>
+      <c r="C107" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" s="7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
+        <v>3</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="6">
+        <v>11</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="6"/>
+        <v>ribulose-5-phosphate</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="6"/>
+        <v>17363</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="6">
+        <v>604</v>
+      </c>
+      <c r="C108" s="6">
+        <v>5</v>
+      </c>
+      <c r="D108" s="7">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0</v>
+      </c>
+      <c r="F108" s="6">
+        <v>3</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108" s="6">
+        <v>20</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="6"/>
+        <v>ribulose-5-phosphate</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>17363</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B109" s="6">
         <v>290</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C109" s="6">
         <v>7</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D109" s="7">
         <f t="shared" si="3"/>
         <v>298</v>
       </c>
-      <c r="E61" s="7">
-        <v>0</v>
-      </c>
-      <c r="F61" s="6">
-        <v>0</v>
-      </c>
-      <c r="G61" s="6">
+      <c r="E109" s="7">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6">
         <v>1</v>
       </c>
-      <c r="H61" s="6">
-        <f t="shared" si="4"/>
+      <c r="H109" s="6">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I61" t="s">
-        <v>104</v>
-      </c>
-      <c r="J61">
+      <c r="I109" t="s">
+        <v>103</v>
+      </c>
+      <c r="J109">
         <v>15721</v>
       </c>
-      <c r="L61" t="str">
-        <f t="shared" si="2"/>
+      <c r="K109" s="6"/>
+      <c r="L109" t="str">
+        <f>L105</f>
         <v>LC-MS1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="4"/>
-      <c r="H62" s="6"/>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="6">
+        <v>357</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2</v>
+      </c>
+      <c r="D110" s="7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6">
+        <v>3</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
+      <c r="H110" s="6">
+        <v>11</v>
+      </c>
+      <c r="I110" t="str">
+        <f>I109</f>
+        <v>sedoheptulose-7-phosphate</v>
+      </c>
+      <c r="J110">
+        <f>J109</f>
+        <v>15721</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L110" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
